--- a/data/trans_bre/P32C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P32C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,7; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 11,26</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 0,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 0,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,87%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; -0,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,89; -0,69</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; -0,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; -0,05</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 2,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 110,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,47; 374,84</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,97%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; -1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -1,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; -0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,28%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; -0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 0,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,32; 186,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -20,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,26; 307,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,4; 78,55</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,82%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -1,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; -0,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 16,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -57,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,23; -26,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,55; 104,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-38,66%</t>
+          <t>-57,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,0</t>
+          <t>-1,68; -0,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 11,26</t>
+          <t>-2,05; 1,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,0</t>
+          <t>-3,91; -0,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,0</t>
+          <t>-0,97; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 387,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,22 +720,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-77,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,87%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-2,89; -0,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,0</t>
+          <t>-2,55; -0,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,77</t>
+          <t>-2,74; -0,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,15</t>
+          <t>-1,35; 3,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 110,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,51; 405,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-77,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-14,34%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,69</t>
+          <t>-6,0; -1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,66</t>
+          <t>-3,95; -1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,05</t>
+          <t>-3,63; -0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,91</t>
+          <t>-1,76; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,47; 374,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-81,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>-48,71%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -1,66</t>
+          <t>-1,95; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,07</t>
+          <t>-4,54; -0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,77</t>
+          <t>-1,31; 1,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,97</t>
+          <t>-2,14; 0,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,32; 186,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -20,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,26; 307,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,32; 72,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>-51,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-81,51%</t>
+          <t>-85,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-65,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-50,28%</t>
+          <t>-24,41%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,88</t>
+          <t>-1,81; 0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,93</t>
+          <t>-2,52; -1,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,55</t>
+          <t>-1,79; -0,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,45</t>
+          <t>-1,03; 0,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 186,65</t>
+          <t>-78,91; 16,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,07</t>
+          <t>-100,0; -57,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 307,16</t>
+          <t>-88,23; -26,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-91,4; 78,55</t>
+          <t>-72,61; 78,45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-51,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-85,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-65,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-16,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 0,09</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; -1,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; -0,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 1,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-78,91; 16,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -57,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-88,23; -26,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-65,55; 104,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P32C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,2</t>
+          <t>-1,71; -0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,15</t>
+          <t>-1,95; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; -0,77</t>
+          <t>-3,59; -0,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,11</t>
+          <t>-0,9; 2,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 387,12</t>
+          <t>-100,0; 307,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,69</t>
+          <t>-2,85; -0,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,66</t>
+          <t>-2,57; -0,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,05</t>
+          <t>-2,58; -0,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,19</t>
+          <t>-1,39; 2,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,05</t>
+          <t>-100,0; 146,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 405,08</t>
+          <t>-77,12; 411,84</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -1,66</t>
+          <t>-5,67; -1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,07</t>
+          <t>-4,02; -1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,77</t>
+          <t>-3,89; -0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,21</t>
+          <t>-1,62; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,88</t>
+          <t>-1,72; 3,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,93</t>
+          <t>-4,45; -1,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,55</t>
+          <t>-1,35; 1,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,5</t>
+          <t>-2,19; 0,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 186,65</t>
+          <t>-58,7; 222,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,07</t>
+          <t>-100,0; -25,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 307,16</t>
+          <t>-79,89; 238,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,32; 72,68</t>
+          <t>-89,86; 91,01</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,09</t>
+          <t>-1,84; 0,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -1,03</t>
+          <t>-2,42; -1,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; -0,4</t>
+          <t>-1,72; -0,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,76</t>
+          <t>-1,03; 0,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-78,91; 16,45</t>
+          <t>-81,15; 8,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -57,08</t>
+          <t>-96,28; -53,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-88,23; -26,25</t>
+          <t>-86,06; -15,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 78,45</t>
+          <t>-69,78; 93,38</t>
         </is>
       </c>
     </row>
